--- a/sample_toxic.xlsx
+++ b/sample_toxic.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>69.89</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -485,7 +485,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">While you're right about ragheads, euthanasia solution is the most frequently stolen "medication" from verterinary clinics, after Ketaset. Or it used to be, anyway. I know Ketaset is stolen to get high on, but I don't why euthanasia solution is stolen. I really think I'm better off not knowing some things.
+          <t xml:space="preserve">I'm quite sure when the jews saw that, they just smiled, patted themselves on the back, knowing full well that the White people on the bus were terrified to even so much as tell the africn to shut up, or even go back to africa. When it's so in your face as this, you can only presume we are well on our way to White Genocide. I am beginning to think our people will just roll over and die, rather than stand up and throw off this death-yoke.
 </t>
         </is>
       </c>
@@ -493,7 +493,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>96.74</t>
+          <t>79.78</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -505,7 +505,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is an excellent idea, especially for blacks. Seeing that all they buy with their welfare checks are plasma-screen t.v.'s, spinning 20" rims, etc. If only we could slip one by our jew government, negroes would be overjoyed to copulate with one another without the threat of pregnancy and get paid for it, too!
+          <t xml:space="preserve">I dont think that femenism has anything to do with this. For instance, in Uk is really sick to see all this hapening. I was there last year and to try to talk with a British men is imposible, first of all they wouldnt talk with you if you are a White i think, and less if you are European. THe only thing that british men talk to now it is to what is not european or non white, as if it was something that to be proud of. It is the end of the civilization. I think this example can be applied to the rest of White men all over the world nowadays
 </t>
         </is>
       </c>
@@ -513,7 +513,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>97.69</t>
+          <t>63.93</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -525,7 +525,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">The last Presidential election was again "loaded" for the Edomite Jews - a win-win for them. I voted for McCain simply b/c I would NOT vote for a savage negro. However, McCain would have been a dream "President" for the Satanic Jews. We would probably be in war with Iran right now, had McCain been elected. ALL of these "politicians" are in the Jews' pockets! The only way America will ever get back on track is when the Whites actually DO have their "Revenge"!
+          <t xml:space="preserve">In the end, jews are essentially committing slow suicide by seeding Western nations with their natural enemies, the Moors--HLM: Paris: 85-Year-Old Lampshade Stabbed And Burned To Death Inside Her Apartment, Moslems Suspected Paris: 85-Year-Old Lampshade Stabbed And Burned To Death Inside Her Apartment, Moslems Suspected – Occidental Dissent From Waaay Out West, --HLM
 </t>
         </is>
       </c>
@@ -533,7 +533,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>62.84</t>
+          <t>88.85</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -545,7 +545,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">You know the OP's predecessors should have just said no when the Holland based Jewish slave traders arrived in the West coast four hundred years ago... instead they got shown beads... saw awlla det bling and went... "I wonna gibs me summa dat... wotcha want for dem blings cracka?" "Oi vey vee are lookink for some slaves to sell to de goy" "Dems bee my bruvvas? Shore ting boss... I gettsya summa blackass to enslave en sheet... juss gibbs me summa dat bling fodda b***tches imma crib so I can gets mudeek off onna dems" "Oi I got all de bling you vont my friend... just help a man out veeth some product and vee can shake hends and I give you vot you vont and I get vot I vont... and everybody is heppy...do vee hef a deal?" "Shore shore.. juss gimme summa en I'll getsyuh as many n**ggazz as yo boat can load..." And the rest unfortunately is history...
+          <t xml:space="preserve">[QUOTE=Monkey Mandela]Sadly, we have woken up too late. Nothing more can be done now. The number of politically correct race traitors in and outside our parliament and media, is growing day by day. And so is the constant arrival of immigrants. We have become an ethnic minority in our own country. Never say die MM The army which thinks itself defeated, is defeated - we are not! Far from it. Btw, how can you bear to use that man's name? I would feel contaminated by it..
 </t>
         </is>
       </c>
@@ -553,7 +553,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -565,7 +565,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">she lacks harmony with her own people, she is weak and will probably suffer at the hands of those she loves so much the negro lads when they come to rape her and destroy all part of her innocence and caring. blacks tend to take what there is to take...that includes this little traitor.
+          <t xml:space="preserve">There are certain races that need to be sterilised. Forget contraception in Africa...too expensive, and the results are not worth the effort. There has to be a point where we accept that breeding quality out weighs breeding quantity. To convince muslims of this will be an uphill slog. Muslims even breed with their cousins...inbreeding The science of Eugenics has been swept aside for to long, and we need to re-discover the original intentions of the science. Just as in Horse breeding, you do not save the runts and allow them to sire bad stock. We could short circuit the contemporary probeings in Britain to find the violent gene and just sterilise the degenerate races. To save futher on costs, we could simply stop sending aid to these people, which only gives them incentive to come to the west, and also we need to close the borders.
 </t>
         </is>
       </c>
@@ -573,7 +573,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>99.32</t>
+          <t>99.59</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -585,7 +585,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Banking would have came along with out the Jews. The only problem with banking is the usury the Jews apply it with. Banking is something the White race can do without screwing people over. The Jews just used it for a terrible purpose. It's not evil itself. It's like a gun, it's only dangerous as the person behind it.
+          <t xml:space="preserve">You people want Islam off your back &amp; off your land . . . then get ride of UIsrael So Arabs could take care of Zionism for you once for an all. To do that 1- Stop electing Jews into your Senate &amp; House 2- Stop paying over $$$ to support Israel (you have so far paid them over $800 Billion in forgiven foreign aid loans &amp; grants in terms of 1994 dollar and this is not even include the free military hardware they get 3- Get ride of the lobby influence in any form, they are playing you like a violin and most of you don't even know it
 </t>
         </is>
       </c>
@@ -593,7 +593,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>69.89</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -605,7 +605,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">In South Africa we do not get Ben&amp;Jerries, which is good because it sounds like they are both jews. These people from PETA should be confined to a mental institution. This is the most ridiculous statement I ever heard,these idiots have nothing to do and they are wasting time and raising my blood pressure by going around and trying to change the way normal human beings live. These kind of nuts would have been purged in Germany in the good old days.
+          <t xml:space="preserve">While you're right about ragheads, euthanasia solution is the most frequently stolen "medication" from verterinary clinics, after Ketaset. Or it used to be, anyway. I know Ketaset is stolen to get high on, but I don't why euthanasia solution is stolen. I really think I'm better off not knowing some things.
 </t>
         </is>
       </c>
@@ -613,7 +613,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>66.52</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -625,7 +625,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are certain races that need to be sterilised. Forget contraception in Africa...too expensive, and the results are not worth the effort. There has to be a point where we accept that breeding quality out weighs breeding quantity. To convince muslims of this will be an uphill slog. Muslims even breed with their cousins...inbreeding The science of Eugenics has been swept aside for to long, and we need to re-discover the original intentions of the science. Just as in Horse breeding, you do not save the runts and allow them to sire bad stock. We could short circuit the contemporary probeings in Britain to find the violent gene and just sterilise the degenerate races. To save futher on costs, we could simply stop sending aid to these people, which only gives them incentive to come to the west, and also we need to close the borders.
+          <t xml:space="preserve">He was a Jew from Georgia. Communism was created by a Jew, perpetuated by Jews, so he just took the torch. OP, you conveniently forget the Rwandan genocide and the 10s of thousands of Americans who are gunned down in their homes and streets every year by your beloved "African Americans".
 </t>
         </is>
       </c>
@@ -633,7 +633,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>99.73</t>
+          <t>82.78</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -645,7 +645,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">I believe those were Jewish Czechs that Hitler ordered executed. Stalin murdered far more of his own people but yet little is said of this. Hitler was a flawed but great man. He took a country that was demoralized and humilated after WWI and within 10 years built it up again to a great military might. He saved Germany from Communism, that Jewish cancer. Would you rather had Hitler sit back powerless while the jews destroyed and decayed his beloved Deuschtland ? Hitler had balls in the sense that he was one of the few Gentile leaders who stood up to the Jews. Because the Jews control my country and my country kisses Israel's ass. We need a Hitler over here to wipe all the filth away.
+          <t xml:space="preserve">Chocolate? I think you mean turd, sh*t or feces. Those are the defining characteristic's of the Negro. Chocolate is a treat; And nothing about a negro is a treat. Let's not pretend the negro is somehow glorious with 'chocolate' terms, brother (or sister? - After Volkish I dont want to offend anyone's gender... ) Just a rant about the chocolate comment, nothing direced at you.
 </t>
         </is>
       </c>
@@ -653,7 +653,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>99.45</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -665,7 +665,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'll give you two reasons: 1. Chechnya is part of the Russian federation and Russia should not give it back to bunch of terrorists- giving it back will be reward for terrorism- we must fight the mudslims- not surrender to their "brave" attacks. 2. Chechnya is very rich with natural resources- especially oil, don't you think it will harm our economy? Another thing, if these sub humans want independence they can go back to Saudi Arabia, Afganistan or wherever they came from. I always thought that Russia should get all the non Russians out of itself and I DON'T CARE if they were living there for hundreds of years- RUSSIA FOR RUSSIANS!!!! Peter the Great.
+          <t xml:space="preserve">British by passport. We do not mutilate the genitals of our offspring. Savage. Kosher and Halal, are indistiguishable. Barbaric. We do not hide behind quasi religious taboo's. Jews occupy Palestine based on a myth, that a voice was heard in a burning bush. Get over it. Grow up. Take responsibility for your oddball out of step conduct, and the consequences.
 </t>
         </is>
       </c>
@@ -673,7 +673,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>85.84</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -685,7 +685,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Here is a great opportunity to do a Montgomery Bus style boycott only reverse the tables against wilding Blacks. Start a grass roots taxi cab boycott of Black men to protest letting the Central Park Rapists off Scott free. Print up flyers and distribute to all taxi drivers not to pick up Black men as a protest to this horrible Black racist act. The best part about this plan is that the boycott is 100% guaranteed to succeed because cab drivers already boycott Black men as potential thieves, murderers - Arab drivers, Black African drivers, ethnic Whites all practice racial profiling. The boycott will be announced as a great success and we can use it any time the Blacks do some other horrible act to excuse Black criminals.
+          <t xml:space="preserve">http://news.yahoo.com/s/ap/20100825/...nuremberg_laws Hitler’s segregation policies lead to the killing of Jews. Umm, not quite. So were the Jim Crow laws a framework for killing millions of US negroes? Segregation laws that forbid interracial marriages do not automatically lead to genocide. But the Jews say it does, because you know, they said so. Israel ought to inspect their own process of marginalizing the Arabs. I guess that the Jews are committing a holocaust against the Arabs as well.
 </t>
         </is>
       </c>
@@ -693,7 +693,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>96.73</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -705,7 +705,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yeah, relatively poor Mexico does the same thing. All it takes is political will. And in the case of these Jews: they did it by ignoring all the international laws they used to help Jews in an emergency. My dream is for the Greeks to be able to show up the Jews by having swift, legal, humane deportations. None of this three years in prison without considering refugee status. Simply, are you from a country with a civil war? No? Your boat leaves tomorrow.
+          <t xml:space="preserve">Okay now I've watched it. I must say it must drive the Jewmedia mad that these highly skilled aeronautical scientists and engineers are speaking with such great admiration and awe of WW2 era German (i.e. "filthy stupid Jew murdering jackbooted Nazis") technology... This is not one of those cases where they can squeal Anti Semite Anti Semite Jew Hater Ostracise Holocaust™ Fire them Crucify! Death murder kill! As these men are all scientists and engineers who have contributed such an immense amount to US air technology advances that their credentials can be questioned but the skills not lost...
 </t>
         </is>
       </c>
@@ -713,7 +713,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>62.04</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -725,7 +725,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">If der fuehrer had won the war,had annihilated the mongrols and slavs in the east,had rid Central and Eastern Europe of the accursed jews,there would had been no cold war between Russia and the U.S. and most importantly the power of world jewry would have collapsed,though no doubt they would have remained influential in England and America. Of course France would have become German territory and there is every reason to believe that the Third Reich would have,if not straightway after its triump in WWII then at least inevitably set about to engage Britain and America in a new and protracted war through concentrated efforts by air and by sea,a full-blown invasion whereby to annex these countries as colonial possessions in the West,thats if one accepts that A.Hitler truly sought to establish a world empire ... had this been the case,there would be no modren concern over Spanish-speaking aliens,and the spooks and jews would themselves serve NO threat at all. KB
+          <t xml:space="preserve">Peace isn't possible in white lands until pompous negroes are banned from white man's thinking jobs like college professor. That will suffice until they all are deported to Liberia to enrich that country where no white man is present to impede their natural superiority. Yep, no peace for us until every last one of them is gone. If blacks think they are so tired of US....if they only could imagine and feel, really feel, how tired we are of their ape like bs. I bet they'd all say upon realizing how WE feel...."DAYUMMM!!!!"
 </t>
         </is>
       </c>
@@ -733,7 +733,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>98.88</t>
+          <t>83.41</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -745,7 +745,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">If only. Muslims have promised in Britain, that if the "West" keeps on supporting the jewish occupation of Palestine, they will wreck our economies and drive us into the ground, using our own laws. Who in America would guess at the impact ZOG/US policy is having on Europe. We have to keep towing the line, lest we are described as "Nazi" ...again. If Americans have so much time for war, they should help us throw the muslims out of europe, and leave the jews to the jackals.
+          <t xml:space="preserve">You may be what I have suspected for some time on this site, an example of a government plant to pollute and minipulate the way people think on this site.There is nothing right about racial erasing(mixing) and there never will be. As for the phrase"American",I do not apply that to myself and I have that flag "X" ed on my the back of my jacket in large text. If your just a liberal, we(racists) do not agree with you and will keep your way of thinking away from our children,since whites are a choosen people and not to be adulterated as the bible states about staying away from other races.If you are a plant,you are a poisonous serpent to our people's mind's and the future of white societies and you should just leave this site now.:attack
 </t>
         </is>
       </c>
@@ -753,7 +753,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>68.72</t>
+          <t>97.74</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -765,7 +765,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">The jews have declared open war on our people. Why are we helping these people? "Australian nurses and midwives are being forced to announce their 'white privilege' before treating Indigenous and Torres Strait Islander patients - a move which has been slammed as 'racist to its core'." Nurses forced to announce 'white privilege' when treating Indigenous | Daily Mail Online Sorry For Being White | Australia Nurses Have a New Shocking Code of Conduct - YouTube
+          <t xml:space="preserve">I'll give you two reasons: 1. Chechnya is part of the Russian federation and Russia should not give it back to bunch of terrorists- giving it back will be reward for terrorism- we must fight the mudslims- not surrender to their "brave" attacks. 2. Chechnya is very rich with natural resources- especially oil, don't you think it will harm our economy? Another thing, if these sub humans want independence they can go back to Saudi Arabia, Afganistan or wherever they came from. I always thought that Russia should get all the non Russians out of itself and I DON'T CARE if they were living there for hundreds of years- RUSSIA FOR RUSSIANS!!!! Peter the Great.
 </t>
         </is>
       </c>
@@ -773,7 +773,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>80.66</t>
+          <t>83.39</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -785,7 +785,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">It seems as though the Jews complain that "KKHHizzbullah" are financed by Iran. Therefore Iran is a "Terrorrist state". Who finances the "Zionist Regime" in Palestine? Is this not why we have become targets of the dispossesed Arabs? The Arabs said that if the "West" failed to take their concerns seriously they would bring the War to the streets of the "West". The "west" is reaping the seeds it sowed when it decided to support the injustice known as "Israel". This is precisely where Judaic Philosophy fails. You cannot abuse people and hope the problem will simply be brushed under the carpet because Jews call themselves superior. If the Jews keep on, full-steam ahead destroying the Cultures of the Middle-East they will end up with another "Arse Kicking". Time for the Jews to stop and think for a change, instead of relying on their Dusty old Tomes, the Talmud has brought them nothing but bad luck. JU88.
+          <t xml:space="preserve">Uhhh, we teach our children not to marry non-whites. No, really, it's that simple. They can bring in all the non-whites they want, that only helps us by providing us with daily examples of how different they are from us, and how ill-suited they are as marriage partners. They literally make our cases for us, as you can see from BrownBread/every guest troll we've had in the past few weeks with "x" in his handle. Most non-whites who come here are intentionally obtuse. They aren't very good at winning the hearts and minds of whites, which is why they have to use dishonesty and subversion to do it. Teach your children this, they will recognize it and stay far away from non-whites. That's all we have to do for now.
 </t>
         </is>
       </c>
@@ -793,7 +793,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>54.53</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -805,7 +805,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.000.000 you're dreaming man... That should be one of theories of 20th-century, anti-Turk, French anthropologist telling things such: "when the Turk came to Anatolia, he had the terrible 'Mongolic-Tataric' look; and by raping the natives ... it was one of the rare time that the 'inferiors' beated the supremes and finally the Turks have lost their terrible look to be aryanized ... " bla bla bla ... moreover, look at the problem of your country before being busy with the Turks, and feeding with lies Keep in mind that all our Great victories were before 1526 ... And they haven't married our daughters .. But rather native balkan girls. Not all of them were Muslim, just contrary, they were free at their choice... Year-Number of Jannisaries[5]1514-10,156***1523-12,000***1526-7,885***1564-13,502***1567-68-12,798***1574-13,599***1603-14,000***1609-37,627***1660-61-54,222***1665-49,556***1669-51,437***1670-49,868***1680-54,222
+          <t xml:space="preserve">she lacks harmony with her own people, she is weak and will probably suffer at the hands of those she loves so much the negro lads when they come to rape her and destroy all part of her innocence and caring. blacks tend to take what there is to take...that includes this little traitor.
 </t>
         </is>
       </c>
@@ -813,7 +813,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>70.05</t>
+          <t>99.14</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -825,7 +825,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">What would you have us do? Round up all negro kids at birth and put them behind bars? We (well, most of us, atleast I had thought so...) are for a white nation. Not blind hatred. We will get nowhere fast with people spouting out hateful and heartless nonsense. I said nothing about negroes being innocent. Children are innocent. If you cannot see that, then go f'ing hang yourself. No child deserves this. White or black. Race should not matter when it comes to the life of an innocent. This child did not ask to be born, nor has he asked for a death sentence, and that's exactly what he has been givin.
+          <t xml:space="preserve">The next time we have an election I say we stand in front of the voting booths and not let the coloreds vote. I mid as well say it, get rid of all the traitors that are now in power remove their citizenship and throw them out of our country. 14/88
 </t>
         </is>
       </c>
@@ -833,7 +833,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>59.41</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -845,7 +845,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is so true. Why the hell would a woman do that to herself, anyway? Quite frankly, I find un-natural breasted women disgusting, regardless of race. I have never really liked Anderson, but I am sure that she was an attractive woman before getting her butt inside the re-making factory. As for her being jewish, I don't know. I am willing to bet any amount of money that if you guys were "media artists" the jews would throw "facts" here and there about you guys being jews as well. It is a well known fact that jews like to call anyone a jew, just so that it looks like they are a large numbered people.
+          <t xml:space="preserve">It doesn't take away anything from my feelings of sheer contempt for what the darkies do everyday here in the US to White women but I have some small grain of sympathy for non-White rape victims. It's bigger than just violent crime, you actually have to hate women on some level. That being said what goes on in Africa until such time that it directly impacts US economic or strategic interests is not our problem. We have more pressing issues at home like crime, poverty and immigration to be worrying about rather than what some mudhole in central Africa is doing to it's citizens.
 </t>
         </is>
       </c>
@@ -853,7 +853,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>71.05</t>
+          <t>97.95</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -865,7 +865,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Interesting,that Lucas Films would name the Jedi Ezra. Ezra, in the Old Testament, preserved and protected the Jewish race. Yes, race. He didn't want no race mixing among the Jews. He told those Jewish males to get rid of their foreign wives and get back in the fold. Ezra - Chapter 9 verse “For they have taken of their daughters for themselves, and for their sons: so that the holy seed have mingled themselves with the people of those lands: yea, the hand of the princes and rulers hath been chief in this trespass.” Ezra was a racial purist for the Jews.
+          <t xml:space="preserve">To be honest the part in this video where Duke is in a midst of towelheads being cheered on made me sick to my stomach. I can't stand this muslim hugging, its like spitting in the face of every european who faces murder and gangrape every single day by these people. The enemy of my enemy is certainly NOT my friend. I dislike Israel as much as everyone on this board but I have no sympathy for any arab or muslim, they are are Europes mestizos and blacks all rolled into one.
 </t>
         </is>
       </c>
@@ -873,7 +873,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>59.32</t>
+          <t>68.72</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -885,7 +885,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">I was re-reading "My Awakening" chapter 22, last night. Israel: Jewish Supremacy in Action. An account of the attack on the USS Liberty is near the end of the chapter, it got my blood boiling. The Jews are ruthless, manipulative, cunning, racist beyond our Goy imaginations. The blood of a million Goy is not worth the thumbnail of a Jew. http://www.front14.org/tsun Nothing would surprise me when it comes to Jewish manipulation of world history/events. As far as the WTC incident, besides the stench of 5000 decaying, mostly white bodies, the smell of schmalz hangs heavy in the Manhattan air. Lawdog Links not working. It gets overloaded sometimes.
+          <t xml:space="preserve">The jews have declared open war on our people. Why are we helping these people? "Australian nurses and midwives are being forced to announce their 'white privilege' before treating Indigenous and Torres Strait Islander patients - a move which has been slammed as 'racist to its core'." Nurses forced to announce 'white privilege' when treating Indigenous | Daily Mail Online Sorry For Being White | Australia Nurses Have a New Shocking Code of Conduct - YouTube
 </t>
         </is>
       </c>
@@ -913,7 +913,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>61.59</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -925,7 +925,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm quite sure when the jews saw that, they just smiled, patted themselves on the back, knowing full well that the White people on the bus were terrified to even so much as tell the africn to shut up, or even go back to africa. When it's so in your face as this, you can only presume we are well on our way to White Genocide. I am beginning to think our people will just roll over and die, rather than stand up and throw off this death-yoke.
+          <t xml:space="preserve">Sad but true The most revolting part is that Doutzen Kroes is so stunning and even so she love disgusting mulattoes. I can't wait to see the day of revenge, the day that race traitors will be hanged in trees for the rest to see what await liberals, enemies, and possible traitors.
 </t>
         </is>
       </c>
@@ -933,7 +933,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>97.01</t>
+          <t>96.74</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -945,7 +945,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">And listening to her tell us how to think or what she thinks is wrong with how we speak is better than the media actually covering whats happening? They air her vs airing actual new &amp; that this truly is Islamic terrorists placing bombs in our nation. But that would ruin her agenda. _______________________________________________ WAKE-UP, NOW STAND-UP, &amp; FIGHT TEXAS!!!
+          <t xml:space="preserve">This is an excellent idea, especially for blacks. Seeing that all they buy with their welfare checks are plasma-screen t.v.'s, spinning 20" rims, etc. If only we could slip one by our jew government, negroes would be overjoyed to copulate with one another without the threat of pregnancy and get paid for it, too!
 </t>
         </is>
       </c>
@@ -953,7 +953,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>54.02</t>
+          <t>60.06</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -965,7 +965,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's not really a problem at my school because we have so few non-Whites. Four Blacks and 8 Asians and a couple of non-White Hispanics. That's it. What I see are more wiggers and they just look retarded. Sometimes I'll see mixed couples in Wal-Mart, a Black guy as black and ugly as they come with a fat White woman with blond hair for instance, and it makes me sick. Then at Shaw's supermarket, I sometimes see a White liberal with a couple of nappy headed little Black bundles of ugly and dull looking waifs and I get mad. I suspect they're orphans from some God awful African nightmare place like Dafur. How trendy? Like there's no White kids right here in our country who need a home, family and chance at life. I actually think such people are mentally disordered.
+          <t xml:space="preserve">Now that I think about it the alien conspiracy in X-files could be an allegory for the Zionist conspiracy in the world. The Zionist (I mean aliens) want to conquer the world by genocide of us. If X-files were real, the aliens would have to worry about Mr Jew. Big Time! Mr Jew would seek to create a Jew-alien hybrid. Mr Jew would use the hybrids against the aliens. Mr Jew likes saying, "We are one of you." Obviously, Mr Jew would rot the aliens society from the inside out like the cancerous tumor that he is. Never trust a Jew. Everyone gets screwed by the Jews on their Jew deals. I almost feel sorry for the aliens, but my loyalty is to my race. In the end it is all about their Jew hate.
 </t>
         </is>
       </c>
@@ -973,7 +973,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>73.18</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -985,7 +985,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Only problems I've ever had in public places have been with nonwhites. I've had issues with groups of asians, blacks, and mexicans. I've been called a "whiteboy" by asians. When I turn to look at them they play their little game and put their heads down not making eye contact. Cowardly. Blacks are just obnoxious monkeys and are bound to piss off whoever they're around. (including eachother) I started the **** with the Mexican I got into it with so I can't fault him entirely, other than the fact he was on our territory.
+          <t xml:space="preserve">trying to think up sign slogans "Common Decency" "We're not the enemy" "act civilized!" "show respect, get respect" "Where does revenge get you?" "Protest war, not whites" NOT your "MASSA" Keep Kids Safe! Whites for peace Tolerance works BOTH ways Learn NonViolence Safe Schools! Dignity, not Bloodshed! Stop Beating Kids Hands off schoolkids! *Also this could be a real opportunity to pass out info to the blacks about who their REAL masters are (remember the KISS motto with this, lots of pictures, MTV = gangsta rap= black men in prison/unwed mothers=ghettos)
 </t>
         </is>
       </c>
@@ -993,7 +993,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>62.98</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1005,7 +1005,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Democratyc party has issued an "order" for their members to "collect" at least 200 people which would vote for jewish scum Labus. And on they of voting, to remind those people to vote for jew. Among other things they were instructed to take names, numbers from documents. It looks like they are preparing electoral theft. Watch out for dirty jewish tricks. Now, that is against the election law, since there has to be election silence 72 hours before voting, so people can make their minds and vote. Acceptable choices are Kostunica and Seselj. ------------------------- DS je naredila svojim clanovima da naprave spiskove od po 200 ljudi koji bi glasali za Labusa. Ime, prezime, JMBG i broj licne karte. Naravno, sa svim tim podacima lako je napraviti izbornu kradju.
+          <t xml:space="preserve">Exactly. I just got done saying this in another thread. There will be no negotiations, no settling, and no tolerance levels. If you believe in White survival, you believe in White separation. Whites who mix are no allies of ours and never will be. A White man who sleeps with Asians is no better than a White woman who sleeps with Jews or Arabs. Both are disgusting, no matter the rationalizations.
 </t>
         </is>
       </c>
@@ -1013,7 +1013,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>52.85</t>
+          <t>84.89</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1025,7 +1025,7 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">I clearly remember 1952 America, and America no longer feels like home to me. At my local Walmart, on any given day, I can find several shades, languages, and cultures. I am for exporting illegals-NOT JOBS! Maybe we should outsource the presidency. Wait! I forgot. We already have; to Mexico and Israel.
+          <t xml:space="preserve">Which you know nothing about. #NotAnAnswer How about you and your junglebunny scurry back to whatever east Asian craphole you slithered out from and eat rats and fly-blown chicken feet the way your gods intended for you to do and stop worrying about people who don't belong to you? We don't belong to you, you don't get to say what we do.
 </t>
         </is>
       </c>
@@ -1033,7 +1033,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>82.34</t>
+          <t>59.84</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1045,7 +1045,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">The thing is that doesnt most crime come from blacks in the UK rather than Muslim Asians? Fair enough in not liking Salafi Islam but what about the greater evil of "Yardie" and "Hip Hop Gangsta" culture? The reality is that English kids are much more likely to become corrupted by listening to rap music than they are going to become fanatical Jihadists through reading the Koran.
+          <t xml:space="preserve">Well that is how we feel entirely. Not all criminals are blacks and not all blacks are criminals, but an undeniably and totally inappropriate number are. Which is why we do not wish to associate with them and have them in our lives. Personal safety ? if you worry about that sure enough in my country we could take out the 15% blacks and put an end to 70% of the crime. Rude people ? I do not much care for them myself, if we wish to not associate with rude people that is another easy fix, take out the blacks and you get a much more polite and cohesive society. It is just like you said about yourself as a person, you do not wish to have contact with some types, whilst freely admitting not all our blacks are criminal and offensive, more of them than is acceptable are. Hence my view that not having to encounter the bad ones would be worth losing the contact with the good ones.
 </t>
         </is>
       </c>
@@ -1053,7 +1053,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>82.78</t>
+          <t>57.04</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1065,7 +1065,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chocolate? I think you mean turd, sh*t or feces. Those are the defining characteristic's of the Negro. Chocolate is a treat; And nothing about a negro is a treat. Let's not pretend the negro is somehow glorious with 'chocolate' terms, brother (or sister? - After Volkish I dont want to offend anyone's gender... ) Just a rant about the chocolate comment, nothing direced at you.
+          <t xml:space="preserve">Another excellent and well-written article from you Dr. Duke! It is without doubt that Israel, a Jewish state once a victim of a supposed Holocaust is committing same crimes that were inflicted on them to the Palestinians. It's not all right for anyone to do it unless it's a Jew who did it. A representation of Jewish dominance over our daily lives, indeed.
 </t>
         </is>
       </c>
@@ -1073,7 +1073,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>99.68</t>
+          <t>84.49</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1085,7 +1085,7 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">If it was your daugther you wouldnt be saying she done her time youd want her scalp lets be realistic here and stop sticking up for a child rapist and killer, she pimped her own sister to her husband for god sakes. Oh I forgot blame the Jews for that aswell.
+          <t xml:space="preserve">Exactly. I have been arguing this point with a member who claims that the jewish occupation of palestine is in the wests interests. The west? We are WNists, and not Zionists in the whitehouse. Jews have no foresight, because they "believe" they are guided by a god. They are reckless bunglers, on a criminal scale. They have destroyed any credibility the west may have had to be guardians of best practice, and justice. Now tin pot countries laugh at our intentions, and see us as double speaking hypocrites. We must uncouple the jewish band-wagon from our train of civic culture and society.
 </t>
         </is>
       </c>
@@ -1093,7 +1093,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>99.59</t>
+          <t>54.02</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1105,7 +1105,7 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">We need a White Aryan uprising. I don't even care if it's a violent one or not, we might not even be able to resolve this peacefully anymore. Muslims aren't going to leave this country if we ask nicely are they? Islam is worse than the plague. If people don't wake up fast, this country is gone, and so is democracy. The Islamic Republic of Britain - sound good to anyone?
+          <t xml:space="preserve">It's not really a problem at my school because we have so few non-Whites. Four Blacks and 8 Asians and a couple of non-White Hispanics. That's it. What I see are more wiggers and they just look retarded. Sometimes I'll see mixed couples in Wal-Mart, a Black guy as black and ugly as they come with a fat White woman with blond hair for instance, and it makes me sick. Then at Shaw's supermarket, I sometimes see a White liberal with a couple of nappy headed little Black bundles of ugly and dull looking waifs and I get mad. I suspect they're orphans from some God awful African nightmare place like Dafur. How trendy? Like there's no White kids right here in our country who need a home, family and chance at life. I actually think such people are mentally disordered.
 </t>
         </is>
       </c>
@@ -1113,7 +1113,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>64.29</t>
+          <t>53.99</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1125,7 +1125,7 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">From what I see, it's only satanic music, which ranks about as high as dog sh*t with me. Take these titles for example: "the encyclopedia of serial murders" "I Like It When You Die" "Kill Women" "The Internet Is Gay" "You're Old (F#ck You)" "You're Gay" "Rich Goyette Is Gay" "Pottery's Gay" "Recycling Is Gay" "defiling the grave" "Sodomy and Lust" "Corpsegrinder" "Regurgitated Guts" "Recounts Of Disembodiment" Come on guys, this is sick.
+          <t xml:space="preserve">Excellent post, there is a war on the Family, we know that, not just propaganda out there, job issues, taxes, making life difficult for people, and on and on. I don't see how you can be a queer and a white nationalist at the same time, just because some queers agree with our positions on issues, does not make them a part of rebuilding our society, they cannot be contributors on the most important issues, issues of family and building community. The queers have been used as a battering ram to destroy our society. Just like muliticulturalism. Queers willingly join our enemies because they have a problem with our society. TPTB love queers in positions of authority, they are their greatest allies, look at all the degenerates in government, some crypto and blackmailed, the NeoCons were caught blackmailing them too. We need to get back to basics, honor our fathers, live like they did, build. This is going to be generational, I don't see a bottom any time soon.
 </t>
         </is>
       </c>
@@ -1133,7 +1133,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>99.8</t>
+          <t>89.18</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1145,7 +1145,7 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unfortunaly the Social Democrats are as they were in pre Third Reich Germany still in charge of the media and they WILL put their hate mongering spin on the rhetoric that they publish. The only way to control that is to wrest control of the media from the hands of the KIKE ! ! ! By whatever means necessary.
+          <t xml:space="preserve">I have to give this guy credit for speaking his mind on a bus full of boons. He wins argument and then sheboon attacks in a rage, looks like he gets swarmed by a lot of the bus. Perfect example of when push comes to shove race is all that matters, even for blacks: [ame="https://www.youtube.com/watch?v=sNrpVLPKy4M"]Went Down On The Bus: Argument Ends With Dude Getting Jumped For Getting Too Smart At The Mouth! - YouTube[/ame]
 </t>
         </is>
       </c>
@@ -1153,7 +1153,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>97.59</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1165,7 +1165,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">I dont think that femenism has anything to do with this. For instance, in Uk is really sick to see all this hapening. I was there last year and to try to talk with a British men is imposible, first of all they wouldnt talk with you if you are a White i think, and less if you are European. THe only thing that british men talk to now it is to what is not european or non white, as if it was something that to be proud of. It is the end of the civilization. I think this example can be applied to the rest of White men all over the world nowadays
+          <t xml:space="preserve">Jewliani doesn't have a snowballs chance in hell of being elected. this is simply a setup for a Clinton/ Obama presidency plain and simple, once again advertised as the supposed "lesser of 2 evils" Don't vote for NEOCONS ever again, they are jew worshipping trash who place Israel in front of the USA every single time. Jewliani is a piece of **** prior to 911( he still is now) he was a very hated man in NYC. Jewliani had a major part in the 911 attack, believe me here, don't reward him for this.
 </t>
         </is>
       </c>
@@ -1173,7 +1173,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>90.03</t>
+          <t>62.53</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1185,7 +1185,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peace isn't possible in white lands until pompous negroes are banned from white man's thinking jobs like college professor. That will suffice until they all are deported to Liberia to enrich that country where no white man is present to impede their natural superiority. Yep, no peace for us until every last one of them is gone. If blacks think they are so tired of US....if they only could imagine and feel, really feel, how tired we are of their ape like bs. I bet they'd all say upon realizing how WE feel...."DAYUMMM!!!!"
+          <t xml:space="preserve">Unfortunately it is all too common. They will use any method to rob you of whatever you have because these people have no conscience. I put them on par with Muslims. A lot of them carry knives and take a sick pleasure in cutting you or threatening you. I'd stay as far away from them as possible because these are the type to actually carry out their threats. I think this is a very serious problem and it's shameful that nobody is addressing it properly, in ANY country. Romania did until they joined the EU and the EU forced them to give the gypos more rights &amp;c. These people are a cancer.
 </t>
         </is>
       </c>
@@ -1193,7 +1193,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>74.32</t>
+          <t>80.82</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1205,7 +1205,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Chechens had the backing of the US, Israel, Oligarchs, NeoCons, to attack Russia, just as the Albanians/Bosnians had to attack Europeans/Serbs, they too have attacked US. Chechen Jihadists are in Syria right now killing innocent Syrians with " western " backing. Look what two Chechen Jihadists can do, and amateurs at that. Not one of these people should be allowed in any Western country, NOT ONE. Boston Bomb Suspect In Custody After Showdown " Police have detained the surviving Boston bombing suspect after he was found in a boat in backyard following a huge manhunt that left the city virtually paralysed. " .
+          <t xml:space="preserve">It's true the Muslims will rise and the EU will betray us, but we can't flee from our Europa! Europa is ours! Not for muslims, not for wogs, not for the others! Europa is only for whites! We must fight and win against our enemies, even if we will be very few in fightings!
 </t>
         </is>
       </c>
@@ -1213,7 +1213,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>55.28</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1225,7 +1225,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">i wouldnt vote for a president who supports what israel is doing at this current moment. hes a weak hypocritical jew puppy dog "any state who uses religion as a means in conflict is a terrorist state" he said.. something like that anyway... he musta made 1000 references to GOD during his little campaign looks like your prez is another jew puppydog. weak.
+          <t xml:space="preserve">Excuse me "Bigtigger2", I addressed your post with respect, as I said you seem to be a Credit to your Race, in as much as you seem to be intelligent. However if you are simply here for a "Cerebral Brawl" with "White Folks" I will let you get on with it. I am sure there are people on our Forum who will oblige with a "Slagging Match". I am interested in your potential to anwser some serious questions. You have to accept the basic observation that our societies are at breaking point, $Millions wasted on people in incarceration. Millions flooding into our societies to undercut our work-force to work for low-wages. I accept your comment about "White-collar" crime, but we need to clear out the under-growth first before we get on the case of our people who are ripping us off. We will get there though.
 </t>
         </is>
       </c>
@@ -1233,7 +1233,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>61.02</t>
+          <t>82.34</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1245,7 +1245,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quit your deluded talk. National Socialist policy has nothing to do with the three above you mentioned. You can read these for yourself! It is from National Socialism archives and documents, it has nothing to do with the Jew. Have you even read Mein Kampf? Yeah because they will know what happened with Germans and foreigners if found guilty of sexual relations. I've just showed you so much evidence yet you are in denial, its a sad case really. What makes their statements anymore valuable than "Holocaust survivors" who have been exposed as liars? They opinions do not refute what I have just shown you neither.
+          <t xml:space="preserve">The thing is that doesnt most crime come from blacks in the UK rather than Muslim Asians? Fair enough in not liking Salafi Islam but what about the greater evil of "Yardie" and "Hip Hop Gangsta" culture? The reality is that English kids are much more likely to become corrupted by listening to rap music than they are going to become fanatical Jihadists through reading the Koran.
 </t>
         </is>
       </c>
@@ -1253,7 +1253,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>84.89</t>
+          <t>67.88</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1265,7 +1265,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Which you know nothing about. #NotAnAnswer How about you and your junglebunny scurry back to whatever east Asian craphole you slithered out from and eat rats and fly-blown chicken feet the way your gods intended for you to do and stop worrying about people who don't belong to you? We don't belong to you, you don't get to say what we do.
+          <t xml:space="preserve">wo wo! Hold it there, no need to be that direct. We are 10% or so White, and I also find it difficult to believe we are whiter than Chile... but hey, no use to be that harsh... If this s***hole of a country is still on board is thanks to us.
 </t>
         </is>
       </c>
